--- a/biology/Zoologie/Faisan_de_Vieillot/Faisan_de_Vieillot.xlsx
+++ b/biology/Zoologie/Faisan_de_Vieillot/Faisan_de_Vieillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophura ignita rufa
-Le Faisan de Vieillot[1] (Lophura ignita rufa) est une sous-espèce du Faisan noble (Lophura ignita). Elle doit son nom à l'ornithologue français Louis Jean Pierre Vieillot.
+Le Faisan de Vieillot (Lophura ignita rufa) est une sous-espèce du Faisan noble (Lophura ignita). Elle doit son nom à l'ornithologue français Louis Jean Pierre Vieillot.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, elle n'est reconnue comme une espèce à part entière que par une seule autorité taxinomique : Handbook of the Birds of the World, dans son Illustrated Checklist of the Birds of the World[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, elle n'est reconnue comme une espèce à part entière que par une seule autorité taxinomique : Handbook of the Birds of the World, dans son Illustrated Checklist of the Birds of the World.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faisan de Vieillot mâle a les plumes centrales de la queue blanches, les pattes roses et les parties inférieures blanches, striées de noir bleuâtre. La femelle a la queue brune et les pattes rouges.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Thaïlande, en Malaisie et à Sumatra.
 </t>
